--- a/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>52.51438423690392</v>
+        <v>52.51438423690393</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>51.80898667719395</v>
@@ -669,7 +669,7 @@
         <v>52.06216583686514</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51.3019302310041</v>
+        <v>51.30193023100411</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>51.17473218682871</v>
@@ -684,7 +684,7 @@
         <v>48.80505086000188</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>51.85983038790914</v>
+        <v>51.85983038790913</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>50.19172174151215</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>51.45746488359377</v>
+        <v>51.51227902253492</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>50.68740250770517</v>
+        <v>50.71680936073928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51.0264930686446</v>
+        <v>50.9652815425539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50.48234603186581</v>
+        <v>50.38021751158831</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>50.0768340323598</v>
+        <v>49.92242500837781</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>47.08512788626793</v>
+        <v>47.05904130178259</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>47.26741257494286</v>
+        <v>47.3160155189799</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>47.95857460331414</v>
+        <v>47.93558177501178</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>51.04423470809873</v>
+        <v>51.1223589406329</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49.27431687823199</v>
+        <v>49.3077932821671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49.47466362275955</v>
+        <v>49.5718398872658</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>49.49561810426627</v>
+        <v>49.44415198816612</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.36786826422313</v>
+        <v>53.36760317404539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>52.75205656014646</v>
+        <v>52.83637256190585</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53.00611361622858</v>
+        <v>52.95186785835315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52.07294324159365</v>
+        <v>52.03565431900797</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.26169628407356</v>
+        <v>52.13078913305085</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>49.86049511893969</v>
+        <v>49.85847604034538</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>50.02074062825279</v>
+        <v>50.03035173612386</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>49.46527496641654</v>
+        <v>49.51046251950478</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>52.51435647779642</v>
+        <v>52.60165873785081</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51.09346479485009</v>
+        <v>51.10346941775433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51.32720482751243</v>
+        <v>51.29093939144148</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>50.5568491571196</v>
+        <v>50.60161731182659</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>52.70928383995118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51.34539321091736</v>
+        <v>51.34539321091737</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>49.75336225292629</v>
@@ -826,10 +826,10 @@
         <v>50.62301889190108</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51.63731317181911</v>
+        <v>51.63731317181912</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>50.36115691400647</v>
+        <v>50.36115691400646</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>51.71953804919539</v>
+        <v>51.65090517206139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.05128497932787</v>
+        <v>51.01288725710162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51.85667607886226</v>
+        <v>51.89504677153381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50.46930835134822</v>
+        <v>50.44724221788092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>48.84150708765507</v>
+        <v>48.85480506209428</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.28673162102178</v>
+        <v>48.24761973215838</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>49.59378405458764</v>
+        <v>49.62849784104584</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>48.60362115706549</v>
+        <v>48.62012532572005</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>50.53371512036863</v>
+        <v>50.5662157706269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49.95168228489567</v>
+        <v>49.9433395271389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.03109951372188</v>
+        <v>51.0069949321741</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>49.82363410825116</v>
+        <v>49.73833546665492</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.10239487807822</v>
+        <v>53.13625733163307</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.7832170275885</v>
+        <v>52.8282588948381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.35239474475982</v>
+        <v>53.36612119139858</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52.1741396523142</v>
+        <v>52.20607685236376</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>50.5584623735465</v>
+        <v>50.51883892565413</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.18667258593326</v>
+        <v>50.0904772521722</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>51.5210612774814</v>
+        <v>51.53360214090828</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>50.16444549463912</v>
+        <v>50.15581837460301</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>51.63685006316725</v>
+        <v>51.68063562424362</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.229560378233</v>
+        <v>51.1649562026601</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.26430683113875</v>
+        <v>52.21131317694315</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>50.90875209889083</v>
+        <v>50.94694841170701</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>53.34095164162748</v>
+        <v>53.34095164162749</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>51.96425285656204</v>
@@ -941,7 +941,7 @@
         <v>53.38019588444236</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50.25697055523845</v>
+        <v>50.25697055523844</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>49.80054719071372</v>
@@ -956,7 +956,7 @@
         <v>49.24952842619324</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>51.52592713813319</v>
+        <v>51.52592713813318</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>51.04191170498424</v>
@@ -965,7 +965,7 @@
         <v>52.65731154760586</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>49.72498099354339</v>
+        <v>49.7249809935434</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>52.52313994738066</v>
+        <v>52.45419039863523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>50.72237133069093</v>
+        <v>50.60842989072219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.47077005046005</v>
+        <v>52.52015171694034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49.25927175765626</v>
+        <v>49.16990484534962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>48.75117047793009</v>
+        <v>48.75765818114324</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>49.05376729581602</v>
+        <v>48.96717948956147</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>50.79065998033717</v>
+        <v>50.7886176451849</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.36770952742226</v>
+        <v>48.21272057064426</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>50.91138677867453</v>
+        <v>50.88842976846806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.3043975521852</v>
+        <v>50.21806202025743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.85846608829371</v>
+        <v>52.00991237502343</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>49.04009386598332</v>
+        <v>49.0207720484821</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.99238045422471</v>
+        <v>53.90334398835617</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.95329036812507</v>
+        <v>52.90744558076574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54.14561176482444</v>
+        <v>54.04508652307487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51.14852773088359</v>
+        <v>51.16026648724473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>50.82749232775094</v>
+        <v>50.70300968007685</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>51.14332727235336</v>
+        <v>51.21931385244597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>52.97662664683047</v>
+        <v>52.93134264443022</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.08962945679031</v>
+        <v>50.09833298640212</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>52.18694659858467</v>
+        <v>52.11896223499293</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.79111479194407</v>
+        <v>51.81291967296725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53.28530359906851</v>
+        <v>53.30732300859221</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>50.35715240211619</v>
+        <v>50.41007329877311</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>51.1445186954821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50.49169487299269</v>
+        <v>50.49169487299267</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>50.09937530171646</v>
@@ -1098,7 +1098,7 @@
         <v>49.86638466260873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49.52358177845652</v>
+        <v>49.5235817784565</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>49.6463692569911</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.52777046881361</v>
+        <v>52.49302611470033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>50.66834270079818</v>
+        <v>50.61684624209698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50.01803062327484</v>
+        <v>50.04217034063397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49.02422049948416</v>
+        <v>48.94571803797765</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>49.10193489357751</v>
+        <v>49.12730444955528</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.65783589855899</v>
+        <v>46.63128835448082</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>46.7155227165164</v>
+        <v>46.69926259098254</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>47.94557496791315</v>
+        <v>47.96824413415955</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.03086436051459</v>
+        <v>51.05060631780127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48.94356780747066</v>
+        <v>48.98109668023087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48.6874236229457</v>
+        <v>48.64277993856219</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>48.79198279530519</v>
+        <v>48.83141984198166</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.91216859967215</v>
+        <v>53.94717384829878</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.75382293544699</v>
+        <v>52.77873945082267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>51.97813738196361</v>
+        <v>51.9913449251498</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51.6905845320206</v>
+        <v>51.67927950602441</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.00868114812625</v>
+        <v>51.01576919779418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.18723753973066</v>
+        <v>49.24017529625895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>49.12937632158514</v>
+        <v>49.02108334449439</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.84688505016825</v>
+        <v>49.80453856106078</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>52.25144639464988</v>
+        <v>52.2399520054811</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50.63327333676342</v>
+        <v>50.61249577391325</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50.31252778110749</v>
+        <v>50.24549715241988</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.31596664464896</v>
+        <v>50.42980869471139</v>
       </c>
     </row>
     <row r="16">
@@ -1207,7 +1207,7 @@
         <v>53.37912419335023</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>51.67396918782725</v>
+        <v>51.67396918782726</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>53.36596046392653</v>
@@ -1216,25 +1216,25 @@
         <v>53.12270961171028</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>51.04750421973157</v>
+        <v>51.04750421973159</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>47.95275966178782</v>
+        <v>47.95275966178781</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>51.3139300930547</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>51.19901442821969</v>
+        <v>51.19901442821968</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>52.20094638615995</v>
+        <v>52.20094638615994</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>49.78334671905225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52.32236154418819</v>
+        <v>52.32236154418818</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>52.11623586034747</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.33611659464847</v>
+        <v>52.37163162905165</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>50.15453519002558</v>
+        <v>50.34711394892378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52.11811612436171</v>
+        <v>52.08303551708799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52.26983341766507</v>
+        <v>52.26626495034611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>49.56360869998695</v>
+        <v>49.58229011683726</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.22388347266637</v>
+        <v>46.22124088560216</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>49.75376840517676</v>
+        <v>49.8208583116993</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>50.5117427878349</v>
+        <v>50.40451944203349</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>51.34211413930882</v>
+        <v>51.25707237942245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48.66171150465588</v>
+        <v>48.67383082902425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51.4286501133079</v>
+        <v>51.27301859538959</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>51.53410240691955</v>
+        <v>51.49895299295297</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>54.22159990829508</v>
+        <v>54.19590832950965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.72379796825273</v>
+        <v>52.80647446030343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54.26774576551581</v>
+        <v>54.34259625309996</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53.7153941953506</v>
+        <v>53.76366936967597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>52.2200636434819</v>
+        <v>52.23073856138303</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>49.40904577458993</v>
+        <v>49.35666816742847</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>52.5302547554265</v>
+        <v>52.50112556739784</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>52.02130951925599</v>
+        <v>51.94420744943882</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>53.02244593461816</v>
+        <v>52.89049481609118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50.64160891830478</v>
+        <v>50.72645961959365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53.10115118775011</v>
+        <v>53.04601472988737</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>52.60302636943963</v>
+        <v>52.60272585034748</v>
       </c>
     </row>
     <row r="19">
@@ -1358,10 +1358,10 @@
         <v>49.79210140478227</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>49.45696658665223</v>
+        <v>49.45696658665222</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>48.10321655794139</v>
+        <v>48.10321655794137</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>50.81451458613626</v>
@@ -1370,10 +1370,10 @@
         <v>50.52426667477636</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50.3886280896522</v>
+        <v>50.38862808965221</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>49.19120601070325</v>
+        <v>49.19120601070326</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>51.54758033682727</v>
+        <v>51.66465000947026</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>50.05219911768419</v>
+        <v>50.00766880668226</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49.94376173177297</v>
+        <v>50.01643681112947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49.31447076224594</v>
+        <v>49.3684539729783</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>47.84573215529498</v>
+        <v>47.87502386139357</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>48.48992368526297</v>
+        <v>48.56999666132148</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>47.92451264517988</v>
+        <v>47.87707224151533</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>47.16233620852261</v>
+        <v>47.18910595269668</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>50.016023984109</v>
+        <v>49.99063318248381</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49.68419589545692</v>
+        <v>49.68476675191126</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49.46310309765244</v>
+        <v>49.37031832099932</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>48.51748756479348</v>
+        <v>48.53157851181255</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>53.33841328216678</v>
+        <v>53.33503111602568</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>52.30689834834912</v>
+        <v>52.2177754178466</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52.55488361670986</v>
+        <v>52.57930715882712</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51.04832373692559</v>
+        <v>51.01948612693103</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>50.26679297818482</v>
+        <v>50.32310571728478</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>50.89741584010865</v>
+        <v>50.95494030804863</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>50.76796694924303</v>
+        <v>50.92629648702967</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>49.02694175672039</v>
+        <v>48.98557918976786</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>51.57010619668306</v>
+        <v>51.46687169110128</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>51.39056598903054</v>
+        <v>51.32143101777433</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51.37115215375717</v>
+        <v>51.35401659692339</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>49.81346073246913</v>
+        <v>49.87345432220069</v>
       </c>
     </row>
     <row r="22">
@@ -1482,16 +1482,16 @@
         <v>53.03547220208335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52.57658085553658</v>
+        <v>52.57658085553657</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>51.8313362474619</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>50.81362175678147</v>
+        <v>50.81362175678148</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>50.09969988362707</v>
+        <v>50.09969988362708</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>50.02619690431874</v>
@@ -1500,7 +1500,7 @@
         <v>49.43463499167112</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>51.77554143752506</v>
+        <v>51.77554143752507</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>51.5339737735728</v>
@@ -1509,7 +1509,7 @@
         <v>51.26852542542414</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>50.58877992779378</v>
+        <v>50.58877992779377</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>52.16863594835826</v>
+        <v>52.17677835627605</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>52.42593555741229</v>
+        <v>52.35040588265358</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51.88036740683072</v>
+        <v>51.93889330585321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51.14316841334917</v>
+        <v>51.13028975372998</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>50.14042492238821</v>
+        <v>50.09716107289091</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>49.33654951127978</v>
+        <v>49.39669926135942</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>49.08878498316427</v>
+        <v>49.19803795277133</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>48.72297865665272</v>
+        <v>48.75457131083119</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>51.28101052566215</v>
+        <v>51.3269308310383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51.01174408225777</v>
+        <v>50.97067639974465</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50.69591956905889</v>
+        <v>50.74036003767711</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>50.08937931723075</v>
+        <v>50.08822600253239</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>53.26493972370785</v>
+        <v>53.28841816282459</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>53.62283974669033</v>
+        <v>53.57673157942647</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53.13879858837332</v>
+        <v>53.14971016496332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52.49826973496127</v>
+        <v>52.47279740224293</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>51.47043753180037</v>
+        <v>51.4562522439869</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>50.81808030652225</v>
+        <v>50.98582355920086</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>50.7745155619667</v>
+        <v>50.88076925365537</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>50.15669766809571</v>
+        <v>50.15420222804685</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>52.18689665057347</v>
+        <v>52.24089973715201</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52.01830453307903</v>
+        <v>52.04088795667725</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51.77330040388844</v>
+        <v>51.77804120014552</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>51.09526036118654</v>
+        <v>51.05655571812457</v>
       </c>
     </row>
     <row r="25">
@@ -1615,10 +1615,10 @@
         <v>52.61060637035138</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>52.80161964255222</v>
+        <v>52.80161964255223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53.78851161241504</v>
+        <v>53.78851161241503</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>52.45086224109549</v>
@@ -1630,22 +1630,22 @@
         <v>51.26625662348341</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>51.64364250587953</v>
+        <v>51.64364250587952</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>50.21484513391862</v>
+        <v>50.21484513391863</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>51.6419565362019</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52.01250430609881</v>
+        <v>52.0125043060988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52.68427725768423</v>
+        <v>52.68427725768424</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>51.31077567904758</v>
+        <v>51.31077567904757</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>51.98946311855557</v>
+        <v>51.99380066264415</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>52.23658201288914</v>
+        <v>52.22931849758442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53.27042870073654</v>
+        <v>53.24979566007661</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51.87296401852956</v>
+        <v>51.91324107042328</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>50.07130683395527</v>
+        <v>49.99314275272781</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>50.63362640722436</v>
+        <v>50.62964195858163</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>51.00597876792971</v>
+        <v>50.98229716946754</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>49.66486086661539</v>
+        <v>49.63177190345116</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>51.2124739257178</v>
+        <v>51.18019132898719</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51.59972128086724</v>
+        <v>51.55679113686396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52.26067982953324</v>
+        <v>52.26581845067678</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>50.91304895908503</v>
+        <v>50.89077372122261</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>53.18250712291185</v>
+        <v>53.15869257683011</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>53.29945542001813</v>
+        <v>53.27654450099825</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>54.22040858578244</v>
+        <v>54.2227499513963</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52.9865988365548</v>
+        <v>52.97874481481988</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>51.42044054370584</v>
+        <v>51.36522822655326</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>51.81143066550543</v>
+        <v>51.83897819759069</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>52.31027778541672</v>
+        <v>52.26346093692175</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>50.86132388559972</v>
+        <v>50.77045643827757</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>52.09009102622906</v>
+        <v>52.07589043131249</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52.43742994303722</v>
+        <v>52.40701654685046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53.06735744478319</v>
+        <v>53.0793440969927</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>51.72547404583975</v>
+        <v>51.68091515922916</v>
       </c>
     </row>
     <row r="28">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>52.81078759681099</v>
+        <v>52.81078759681098</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>52.26991123376544</v>
@@ -1757,7 +1757,7 @@
         <v>52.7035101882048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51.52428832361523</v>
+        <v>51.52428832361524</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>50.35557475485115</v>
@@ -1769,7 +1769,7 @@
         <v>50.3823701748662</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>49.48596705167218</v>
+        <v>49.48596705167217</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>51.56424734098984</v>
@@ -1781,7 +1781,7 @@
         <v>51.51781975561694</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>50.47686400138031</v>
+        <v>50.4768640013803</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>52.52942784015313</v>
+        <v>52.55484493662536</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>51.9671819937894</v>
+        <v>51.96483035963771</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>52.40563157921497</v>
+        <v>52.43823180202102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51.23362024748869</v>
+        <v>51.22393414253593</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>50.0451761431171</v>
+        <v>50.01231017446634</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>49.3301183994337</v>
+        <v>49.38824810632136</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>50.01356520391084</v>
+        <v>49.99714066289078</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>49.22778138630045</v>
+        <v>49.19971871958791</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>51.35068727131093</v>
+        <v>51.35440106731233</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50.7478761850118</v>
+        <v>50.72730553115936</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51.28475111135958</v>
+        <v>51.2972101115914</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>50.2844123864816</v>
+        <v>50.27933279397048</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>53.07062330578763</v>
+        <v>53.07332851530058</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>52.58262564937634</v>
+        <v>52.55180927903576</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52.96794175818549</v>
+        <v>52.99926732378591</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>51.79859493024119</v>
+        <v>51.80564150841364</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>50.68482619341621</v>
+        <v>50.64657667059488</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>50.03591057790496</v>
+        <v>50.08863842002339</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>50.73984974258628</v>
+        <v>50.73148560857124</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>49.79495301498666</v>
+        <v>49.77199448946841</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>51.76058903395163</v>
+        <v>51.75199853030235</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51.21823739185511</v>
+        <v>51.19472495495172</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51.74509957723212</v>
+        <v>51.75675787909866</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>50.679393166037</v>
+        <v>50.68475836192489</v>
       </c>
     </row>
     <row r="31">
